--- a/public/template/wilayah.xlsx
+++ b/public/template/wilayah.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/sesendokneo/public/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC5F26-9DE1-2842-A6B2-7C0C65F09868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="wilayah" sheetId="1" r:id="rId4"/>
+    <sheet name="wilayah" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>KODE</t>
   </si>
@@ -50,9 +59,6 @@
   </si>
   <si>
     <t>76.01</t>
-  </si>
-  <si>
-    <t>KAB. PASANGKAYI</t>
   </si>
   <si>
     <t>KAB</t>
@@ -65,61 +71,51 @@
     <t>76.02</t>
   </si>
   <si>
-    <t>KAB. MAMUJU</t>
-  </si>
-  <si>
     <t>Luas Wilayah Indikatif sesuai Surat Badan Informasi Geospasial No. B-8.31/PBW-BIG/IGD.04.04/6/2021 Tanggal 8 Juni 2021</t>
   </si>
   <si>
     <t>76.03</t>
   </si>
   <si>
-    <t>KAB. MAMASA</t>
-  </si>
-  <si>
     <t>76.04</t>
   </si>
   <si>
-    <t>KAB. POLEWALI MANDAR</t>
-  </si>
-  <si>
     <t>76.05</t>
   </si>
   <si>
-    <t>KAB. MAJENE</t>
-  </si>
-  <si>
     <t>76.06</t>
   </si>
   <si>
-    <t>KAB. MAMUJU TENGAH</t>
+    <t>PASANGKAYU</t>
+  </si>
+  <si>
+    <t>MAMUJU</t>
+  </si>
+  <si>
+    <t>MAMASA</t>
+  </si>
+  <si>
+    <t>POLEWALI MANDAR</t>
+  </si>
+  <si>
+    <t>MAJENE</t>
+  </si>
+  <si>
+    <t>MAMUJU TENGAH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Avenir Next Regular"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Avenir Next Regular"/>
     </font>
@@ -297,60 +293,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -361,28 +357,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="fffefffe"/>
-      <rgbColor rgb="ff227aae"/>
-      <rgbColor rgb="ffb3afaa"/>
-      <rgbColor rgb="ffcccac6"/>
-      <rgbColor rgb="ffe4e2de"/>
-      <rgbColor rgb="fff0ebe2"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFEFFFE"/>
+      <rgbColor rgb="FF227AAE"/>
+      <rgbColor rgb="FFB3AFAA"/>
+      <rgbColor rgb="FFCCCAC6"/>
+      <rgbColor rgb="FFE4E2DE"/>
+      <rgbColor rgb="FFF0EBE2"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -581,7 +634,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -599,7 +652,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -628,7 +681,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -653,7 +706,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +731,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,7 +756,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -728,7 +781,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -753,7 +806,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -778,7 +831,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -803,7 +856,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -828,7 +881,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -841,9 +894,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -860,7 +919,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -878,7 +937,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,7 +962,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +987,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +1012,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1037,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1062,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1087,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1112,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1137,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1162,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,9 +1175,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1132,7 +1197,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1150,7 +1215,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1179,7 +1244,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1269,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1294,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1319,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1344,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1369,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1394,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1354,7 +1419,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,7 +1444,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,71 +1457,82 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.83594" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5547" style="1" customWidth="1"/>
-    <col min="3" max="6" width="12.7422" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="58.4531" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="36.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="7">
@@ -1476,15 +1552,15 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" ht="64.5" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:9" ht="64.5" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s" s="9">
-        <v>14</v>
       </c>
       <c r="D3" s="10">
         <v>12</v>
@@ -1501,19 +1577,19 @@
       <c r="H3" s="10">
         <v>191846</v>
       </c>
-      <c r="I3" t="s" s="11">
+      <c r="I3" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36.5" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" ht="36.5" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="6">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="6">
-        <v>14</v>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="7">
         <v>11</v>
@@ -1525,24 +1601,24 @@
         <v>88</v>
       </c>
       <c r="G4" s="7">
-        <v>4979.89</v>
+        <v>4979.8900000000003</v>
       </c>
       <c r="H4" s="7">
         <v>281281</v>
       </c>
-      <c r="I4" t="s" s="12">
-        <v>18</v>
+      <c r="I4" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" ht="36.5" customHeight="1">
-      <c r="A5" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>14</v>
+    <row r="5" spans="1:9" ht="36.5" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D5" s="10">
         <v>17</v>
@@ -1559,19 +1635,19 @@
       <c r="H5" s="10">
         <v>163870</v>
       </c>
-      <c r="I5" t="s" s="11">
+      <c r="I5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="36.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" ht="36.5" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s" s="6">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s" s="6">
-        <v>14</v>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="7">
         <v>16</v>
@@ -1588,19 +1664,19 @@
       <c r="H6" s="7">
         <v>486236</v>
       </c>
-      <c r="I6" t="s" s="12">
-        <v>18</v>
+      <c r="I6" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" ht="36.5" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="9">
-        <v>14</v>
+    <row r="7" spans="1:9" ht="36.5" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="10">
         <v>8</v>
@@ -1617,19 +1693,19 @@
       <c r="H7" s="10">
         <v>179943</v>
       </c>
-      <c r="I7" t="s" s="11">
-        <v>18</v>
+      <c r="I7" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" ht="36.6" customHeight="1">
-      <c r="A8" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s" s="14">
+    <row r="8" spans="1:9" ht="36.5" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="14">
-        <v>14</v>
+      <c r="C8" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="15">
         <v>5</v>
@@ -1646,13 +1722,13 @@
       <c r="H8" s="15">
         <v>138231</v>
       </c>
-      <c r="I8" t="s" s="16">
-        <v>18</v>
+      <c r="I8" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
